--- a/target/test-classes/TestData/Labsquire_DLW_staging.xlsx
+++ b/target/test-classes/TestData/Labsquire_DLW_staging.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranjith Kumar A\eclipse-workspace\EMR_Flow\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09380F89-27E6-4D00-B491-CB51AD6199CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E594B62F-05D6-435F-A70C-3765E9304798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Addcase" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="ClinicalChemistry" sheetId="9" r:id="rId2"/>
     <sheet name="UTI_case" sheetId="8" r:id="rId3"/>
     <sheet name="Order" sheetId="2" r:id="rId4"/>
     <sheet name="Conversion" sheetId="3" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="130">
   <si>
     <t>USERNAME_STG</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>ranjith.facility</t>
-  </si>
-  <si>
     <t>A09</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>Dr Venkatesh</t>
   </si>
   <si>
-    <t>ranjithmanager</t>
-  </si>
-  <si>
     <t>TESTING ORDERING FACILITY</t>
   </si>
   <si>
@@ -415,6 +409,15 @@
   </si>
   <si>
     <t>A01.05</t>
+  </si>
+  <si>
+    <t>ranjith.manager</t>
+  </si>
+  <si>
+    <t>ranjithfacility</t>
+  </si>
+  <si>
+    <t>B81.1</t>
   </si>
 </sst>
 </file>
@@ -863,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -925,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -960,7 +963,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -987,10 +990,10 @@
         <v>21</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>23</v>
@@ -999,12 +1002,12 @@
         <v>1234567</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -1019,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -1046,10 +1049,10 @@
         <v>21</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>27</v>
@@ -1058,12 +1061,12 @@
         <v>1234456</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -1078,7 +1081,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4">
         <v>8</v>
@@ -1105,10 +1108,10 @@
         <v>21</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>31</v>
@@ -1117,12 +1120,12 @@
         <v>1234345</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -1137,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -1164,10 +1167,10 @@
         <v>21</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>35</v>
@@ -1176,12 +1179,12 @@
         <v>1234234</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -1196,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="4">
         <v>9</v>
@@ -1223,10 +1226,10 @@
         <v>21</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>39</v>
@@ -1235,12 +1238,12 @@
         <v>1234123</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -1255,7 +1258,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -1282,10 +1285,10 @@
         <v>21</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>43</v>
@@ -1294,12 +1297,12 @@
         <v>1234012</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -1314,7 +1317,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
@@ -1341,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1353,12 +1356,12 @@
         <v>1233901</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -1373,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -1400,10 +1403,10 @@
         <v>21</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>35</v>
@@ -1412,12 +1415,12 @@
         <v>1233790</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -1432,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1459,10 +1462,10 @@
         <v>21</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -1471,12 +1474,12 @@
         <v>1233679</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -1491,7 +1494,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
@@ -1518,10 +1521,10 @@
         <v>21</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>39</v>
@@ -1530,12 +1533,12 @@
         <v>1233568</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -1550,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
@@ -1577,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>23</v>
@@ -1589,12 +1592,12 @@
         <v>1233457</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -1609,7 +1612,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G13" s="4">
         <v>6</v>
@@ -1636,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>54</v>
@@ -1648,12 +1651,12 @@
         <v>1233346</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -1668,7 +1671,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="4">
         <v>4</v>
@@ -1695,10 +1698,10 @@
         <v>21</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>39</v>
@@ -1707,12 +1710,12 @@
         <v>1233235</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -1727,7 +1730,7 @@
         <v>19</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="4">
         <v>7</v>
@@ -1754,10 +1757,10 @@
         <v>21</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>70</v>
@@ -1766,12 +1769,12 @@
         <v>1233124</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -1786,7 +1789,7 @@
         <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -1813,10 +1816,10 @@
         <v>21</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>73</v>
@@ -1825,12 +1828,12 @@
         <v>1233013</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -1845,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G17" s="4">
         <v>8</v>
@@ -1872,10 +1875,10 @@
         <v>21</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>43</v>
@@ -1884,12 +1887,12 @@
         <v>1232902</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -1904,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4">
         <v>6</v>
@@ -1931,10 +1934,10 @@
         <v>21</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>39</v>
@@ -1943,12 +1946,12 @@
         <v>1232791</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -1963,7 +1966,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G19" s="4">
         <v>9</v>
@@ -1990,10 +1993,10 @@
         <v>21</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>43</v>
@@ -2002,12 +2005,12 @@
         <v>1232680</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -2022,7 +2025,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="4">
         <v>7</v>
@@ -2049,10 +2052,10 @@
         <v>21</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>73</v>
@@ -2061,12 +2064,12 @@
         <v>1232569</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -2081,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" s="4">
         <v>10</v>
@@ -2108,10 +2111,10 @@
         <v>21</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>31</v>
@@ -2120,7 +2123,7 @@
         <v>1232458</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2140,12 +2143,1153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B9FA04-F847-4E5F-BB9A-BE84F3B2C52C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1996</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1111111111</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1234567</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1997</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1111122222</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1234456</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1111133333</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1234345</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1111144444</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1234234</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1111155555</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1234123</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1111166666</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1234012</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2002</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1111177777</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1233901</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2003</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1111188888</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1233790</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2004</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1111199999</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1233679</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2005</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1111211110</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1233568</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2006</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1111222221</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1233457</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2007</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1111233332</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1233346</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2008</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1111244443</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1233235</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2009</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1111255554</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1233124</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2010</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1111266665</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1233013</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2011</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1111277776</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1232902</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2012</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1111288887</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1232791</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2013</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1111299998</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1232680</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2014</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1111311109</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1232569</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="4">
+        <v>123456</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1111322220</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1232458</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2176,13 +3320,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2206,7 +3350,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -2226,7 +3370,7 @@
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -2241,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2" s="4">
         <v>2</v>
@@ -2271,7 +3415,7 @@
         <v>22</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>23</v>
@@ -2280,12 +3424,12 @@
         <v>1234567</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -2300,7 +3444,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
@@ -2330,7 +3474,7 @@
         <v>22</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>23</v>
@@ -2339,7 +3483,7 @@
         <v>1234567</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2426,8 +3570,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,7 +3646,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -2538,10 +3682,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -2550,12 +3694,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -2591,10 +3735,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>27</v>
@@ -2603,12 +3747,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -2644,10 +3788,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
@@ -2656,12 +3800,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -2697,10 +3841,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>35</v>
@@ -2709,12 +3853,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -2750,10 +3894,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -2762,12 +3906,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -2803,10 +3947,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>43</v>
@@ -2815,12 +3959,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -2856,10 +4000,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2868,12 +4012,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -2909,10 +4053,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>35</v>
@@ -2921,12 +4065,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -2962,10 +4106,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -2974,12 +4118,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -3015,10 +4159,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>39</v>
@@ -3027,12 +4171,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -3068,10 +4212,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -3080,12 +4224,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -3121,10 +4265,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -3133,12 +4277,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -3174,10 +4318,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>39</v>
@@ -3186,12 +4330,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -3227,10 +4371,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>70</v>
@@ -3239,12 +4383,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -3280,10 +4424,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>73</v>
@@ -3292,12 +4436,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -3333,10 +4477,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>43</v>
@@ -3345,12 +4489,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -3386,10 +4530,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>39</v>
@@ -3398,12 +4542,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -3439,10 +4583,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>43</v>
@@ -3451,12 +4595,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -3492,10 +4636,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>73</v>
@@ -3504,12 +4648,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -3545,10 +4689,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>31</v>
@@ -3557,7 +4701,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,309 +4727,309 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3901,7 +5045,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,7 +5120,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -4012,10 +5156,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -4024,12 +5168,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -4065,10 +5209,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -4077,12 +5221,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -4118,10 +5262,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>31</v>
@@ -4130,12 +5274,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -4171,10 +5315,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
@@ -4183,12 +5327,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -4224,10 +5368,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>39</v>
@@ -4236,12 +5380,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -4277,10 +5421,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -4289,12 +5433,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -4330,10 +5474,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -4342,12 +5486,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -4383,10 +5527,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -4395,12 +5539,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -4436,10 +5580,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -4448,12 +5592,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -4489,10 +5633,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4501,12 +5645,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -4542,10 +5686,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -4554,12 +5698,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -4595,10 +5739,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -4607,12 +5751,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -4648,10 +5792,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>39</v>
@@ -4660,12 +5804,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -4701,10 +5845,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -4713,12 +5857,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -4754,10 +5898,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
@@ -4766,12 +5910,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -4807,10 +5951,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -4819,12 +5963,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -4860,10 +6004,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>39</v>
@@ -4872,12 +6016,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -4913,10 +6057,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>43</v>
@@ -4925,12 +6069,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -4966,10 +6110,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>73</v>
@@ -4978,12 +6122,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -5019,10 +6163,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -5031,7 +6175,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -5049,8 +6193,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5125,7 +6269,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -5161,10 +6305,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -5173,12 +6317,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -5214,10 +6358,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>27</v>
@@ -5226,12 +6370,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -5267,10 +6411,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>31</v>
@@ -5279,12 +6423,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -5320,10 +6464,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>35</v>
@@ -5332,12 +6476,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -5373,10 +6517,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>39</v>
@@ -5385,12 +6529,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -5426,10 +6570,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>43</v>
@@ -5438,12 +6582,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -5479,10 +6623,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -5491,12 +6635,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -5532,10 +6676,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>35</v>
@@ -5544,12 +6688,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -5585,10 +6729,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -5597,12 +6741,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -5638,10 +6782,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>39</v>
@@ -5650,12 +6794,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -5691,10 +6835,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -5703,12 +6847,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -5744,10 +6888,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -5756,12 +6900,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -5797,10 +6941,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>39</v>
@@ -5809,12 +6953,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -5850,10 +6994,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>70</v>
@@ -5862,12 +7006,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -5903,10 +7047,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>73</v>
@@ -5915,12 +7059,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -5956,10 +7100,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>43</v>
@@ -5968,12 +7112,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -6009,10 +7153,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>39</v>
@@ -6021,12 +7165,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -6062,10 +7206,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>43</v>
@@ -6074,12 +7218,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -6115,10 +7259,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>73</v>
@@ -6127,12 +7271,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -6168,10 +7312,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>31</v>
@@ -6180,7 +7324,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6205,8 +7349,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6280,7 +7424,7 @@
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -6316,10 +7460,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -6328,12 +7472,12 @@
         <v>1234567</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -6369,10 +7513,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -6381,12 +7525,12 @@
         <v>1234456</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -6422,10 +7566,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>31</v>
@@ -6434,12 +7578,12 @@
         <v>1234345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -6475,10 +7619,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
@@ -6487,12 +7631,12 @@
         <v>1234234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -6528,10 +7672,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>39</v>
@@ -6540,12 +7684,12 @@
         <v>1234123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -6581,10 +7725,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -6593,12 +7737,12 @@
         <v>1234012</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -6634,10 +7778,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -6646,12 +7790,12 @@
         <v>1233901</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -6687,10 +7831,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -6699,12 +7843,12 @@
         <v>1233790</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -6740,10 +7884,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -6752,12 +7896,12 @@
         <v>1233679</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -6793,10 +7937,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -6805,12 +7949,12 @@
         <v>1233568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -6846,10 +7990,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -6858,12 +8002,12 @@
         <v>1233457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -6899,10 +8043,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -6911,12 +8055,12 @@
         <v>1233346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -6952,10 +8096,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>39</v>
@@ -6964,12 +8108,12 @@
         <v>1233235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -7005,10 +8149,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -7017,12 +8161,12 @@
         <v>1233124</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -7058,10 +8202,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
@@ -7070,12 +8214,12 @@
         <v>1233013</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -7111,10 +8255,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -7123,12 +8267,12 @@
         <v>1232902</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -7164,10 +8308,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>39</v>
@@ -7176,12 +8320,12 @@
         <v>1232791</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -7217,10 +8361,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>43</v>
@@ -7229,12 +8373,12 @@
         <v>1232680</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -7270,10 +8414,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>73</v>
@@ -7282,12 +8426,12 @@
         <v>1232569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -7323,10 +8467,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -7335,7 +8479,7 @@
         <v>1232458</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7361,7 +8505,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7438,7 +8582,7 @@
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>123456</v>
@@ -7474,10 +8618,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>23</v>
@@ -7494,7 +8638,7 @@
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B3" s="4">
         <v>123456</v>
@@ -7530,10 +8674,10 @@
         <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>27</v>
@@ -7550,7 +8694,7 @@
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>123456</v>
@@ -7586,10 +8730,10 @@
         <v>21</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>31</v>
@@ -7606,7 +8750,7 @@
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B5" s="4">
         <v>123456</v>
@@ -7642,10 +8786,10 @@
         <v>21</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
@@ -7662,7 +8806,7 @@
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B6" s="4">
         <v>123456</v>
@@ -7698,10 +8842,10 @@
         <v>21</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>39</v>
@@ -7718,7 +8862,7 @@
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>123456</v>
@@ -7754,10 +8898,10 @@
         <v>21</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -7774,7 +8918,7 @@
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4">
         <v>123456</v>
@@ -7810,10 +8954,10 @@
         <v>21</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -7830,7 +8974,7 @@
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4">
         <v>123456</v>
@@ -7866,10 +9010,10 @@
         <v>21</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -7886,7 +9030,7 @@
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B10" s="4">
         <v>123456</v>
@@ -7922,10 +9066,10 @@
         <v>21</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -7942,7 +9086,7 @@
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B11" s="4">
         <v>123456</v>
@@ -7978,10 +9122,10 @@
         <v>21</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -7998,7 +9142,7 @@
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4">
         <v>123456</v>
@@ -8034,10 +9178,10 @@
         <v>21</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -8054,7 +9198,7 @@
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4">
         <v>123456</v>
@@ -8090,10 +9234,10 @@
         <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -8110,7 +9254,7 @@
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B14" s="4">
         <v>123456</v>
@@ -8146,10 +9290,10 @@
         <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>39</v>
@@ -8166,7 +9310,7 @@
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B15" s="4">
         <v>123456</v>
@@ -8202,10 +9346,10 @@
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>70</v>
@@ -8222,7 +9366,7 @@
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B16" s="4">
         <v>123456</v>
@@ -8258,10 +9402,10 @@
         <v>21</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>73</v>
@@ -8278,7 +9422,7 @@
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4">
         <v>123456</v>
@@ -8314,10 +9458,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -8334,7 +9478,7 @@
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4">
         <v>123456</v>
@@ -8370,10 +9514,10 @@
         <v>21</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>39</v>
@@ -8390,7 +9534,7 @@
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4">
         <v>123456</v>
@@ -8426,10 +9570,10 @@
         <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>43</v>
@@ -8446,7 +9590,7 @@
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B20" s="4">
         <v>123456</v>
@@ -8482,10 +9626,10 @@
         <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>73</v>
@@ -8502,7 +9646,7 @@
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="B21" s="4">
         <v>123456</v>
@@ -8538,10 +9682,10 @@
         <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
